--- a/demoapp/src/test/resources/excel/testdata.xlsx
+++ b/demoapp/src/test/resources/excel/testdata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>testname</t>
   </si>
@@ -41,19 +41,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>newTest</t>
-  </si>
-  <si>
-    <t>To check whether this test is executed</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>FINRATest</t>
+    <t>loginFinraTest</t>
   </si>
   <si>
     <t>To check whether the FINRA test is working or not</t>
@@ -74,50 +62,50 @@
     <t>fname</t>
   </si>
   <si>
+    <t>ans</t>
+  </si>
+  <si>
     <t>chrome</t>
   </si>
   <si>
-    <t>120.0.6099.129</t>
+    <t>120.0</t>
   </si>
   <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>admin123</t>
+    <t>YWRtaW4xMjM=</t>
   </si>
   <si>
     <t>Dev</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>firefox</t>
   </si>
   <si>
-    <t>121.0</t>
-  </si>
-  <si>
-    <t>YWRtaW4xMjM=</t>
-  </si>
-  <si>
     <t>Krishna</t>
   </si>
   <si>
-    <t>117.0.5938.11</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>113.0.5672.0</t>
-  </si>
-  <si>
-    <t>Kurt</t>
+    <t>devtest</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>XSDSR==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -134,13 +122,29 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -162,8 +166,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,38 +438,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
@@ -478,27 +481,6 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -516,10 +498,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.0"/>
-    <col customWidth="1" min="3" max="3" width="35.0"/>
-    <col customWidth="1" min="4" max="4" width="48.13"/>
-    <col customWidth="1" min="5" max="5" width="28.0"/>
-    <col customWidth="1" min="6" max="6" width="38.88"/>
+    <col customWidth="1" min="2" max="2" width="35.0"/>
+    <col customWidth="1" min="3" max="3" width="48.13"/>
+    <col customWidth="1" min="4" max="4" width="28.0"/>
+    <col customWidth="1" min="5" max="5" width="38.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -527,22 +509,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -550,22 +535,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -573,68 +561,77 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
